--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.3470288509743</v>
+        <v>255.5139573369422</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.5425729635148</v>
+        <v>349.6054689084662</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.8135975790248</v>
+        <v>316.2396136303038</v>
       </c>
       <c r="AD2" t="n">
-        <v>212347.0288509743</v>
+        <v>255513.9573369422</v>
       </c>
       <c r="AE2" t="n">
-        <v>290542.5729635148</v>
+        <v>349605.4689084662</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.726755011388815e-06</v>
+        <v>3.93106566621179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.14583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>262813.5975790247</v>
+        <v>316239.6136303038</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.0435746360991</v>
+        <v>177.491794472012</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.7185294541543</v>
+        <v>242.8521035818274</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.0394276957865</v>
+        <v>219.6746396611163</v>
       </c>
       <c r="AD3" t="n">
-        <v>143043.5746360991</v>
+        <v>177491.794472012</v>
       </c>
       <c r="AE3" t="n">
-        <v>195718.5294541543</v>
+        <v>242852.1035818274</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.623979252809589e-06</v>
+        <v>5.224561926642496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>177039.4276957865</v>
+        <v>219674.6396611163</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.1575399361199</v>
+        <v>155.6910111180535</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.7730912339516</v>
+        <v>213.023310014274</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.9519400706239</v>
+        <v>192.6926642866659</v>
       </c>
       <c r="AD4" t="n">
-        <v>121157.5399361199</v>
+        <v>155691.0111180535</v>
       </c>
       <c r="AE4" t="n">
-        <v>165773.0912339516</v>
+        <v>213023.310014274</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.991765565304886e-06</v>
+        <v>5.754786365403688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.61574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>149951.9400706239</v>
+        <v>192692.6642866659</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.0814210420812</v>
+        <v>151.4443000234225</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.1959655374565</v>
+        <v>207.212772542932</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.9070874230554</v>
+        <v>187.4366763564464</v>
       </c>
       <c r="AD5" t="n">
-        <v>117081.4210420812</v>
+        <v>151444.3000234225</v>
       </c>
       <c r="AE5" t="n">
-        <v>160195.9655374565</v>
+        <v>207212.772542932</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.105205296133081e-06</v>
+        <v>5.918328388497245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.40162037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>144907.0874230554</v>
+        <v>187436.6763564464</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.7368056121005</v>
+        <v>204.8239233871151</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.6636768795396</v>
+        <v>280.2491281718789</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.4129680686536</v>
+        <v>253.5025447113588</v>
       </c>
       <c r="AD2" t="n">
-        <v>162736.8056121005</v>
+        <v>204823.9233871151</v>
       </c>
       <c r="AE2" t="n">
-        <v>222663.6768795396</v>
+        <v>280249.1281718789</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.228587464860082e-06</v>
+        <v>4.726530592475503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.739583333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>201412.9680686536</v>
+        <v>253502.5447113588</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.0653106833705</v>
+        <v>148.7350049033822</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.4374344001582</v>
+        <v>203.5057954340297</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.4118266258773</v>
+        <v>184.0834879400415</v>
       </c>
       <c r="AD3" t="n">
-        <v>115065.3106833705</v>
+        <v>148735.0049033822</v>
       </c>
       <c r="AE3" t="n">
-        <v>157437.4344001582</v>
+        <v>203505.7954340297</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.129588617844292e-06</v>
+        <v>6.045562385724481e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.61574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>142411.8266258773</v>
+        <v>184083.4879400415</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.514658771066</v>
+        <v>145.0137607904855</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.5792758100386</v>
+        <v>198.4142250690632</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.0173238731288</v>
+        <v>179.4778499046419</v>
       </c>
       <c r="AD4" t="n">
-        <v>111514.658771066</v>
+        <v>145013.7607904855</v>
       </c>
       <c r="AE4" t="n">
-        <v>152579.2758100386</v>
+        <v>198414.2250690632</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.240149239306114e-06</v>
+        <v>6.207418976369782e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.413194444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>138017.3238731288</v>
+        <v>179477.8499046419</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.95325628245998</v>
+        <v>129.022411219419</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.0239666382843</v>
+        <v>176.5341550973887</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.2329073661809</v>
+        <v>159.6859831021861</v>
       </c>
       <c r="AD2" t="n">
-        <v>97953.25628245997</v>
+        <v>129022.411219419</v>
       </c>
       <c r="AE2" t="n">
-        <v>134023.9666382843</v>
+        <v>176534.1550973887</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.47749614636249e-06</v>
+        <v>6.927239208824359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.835648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>121232.9073661809</v>
+        <v>159685.9831021861</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.6882792956803</v>
+        <v>137.7741413426582</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.6073663700986</v>
+        <v>188.5086583510822</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.8062422814889</v>
+        <v>170.5176565716717</v>
       </c>
       <c r="AD2" t="n">
-        <v>105688.2792956803</v>
+        <v>137774.1413426582</v>
       </c>
       <c r="AE2" t="n">
-        <v>144607.3663700985</v>
+        <v>188508.6583510822</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.303081440397631e-06</v>
+        <v>6.503221026576591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.800925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>130806.2422814889</v>
+        <v>170517.6565716717</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.3397183322616</v>
+        <v>134.4255803792394</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.0257175318678</v>
+        <v>183.9270095128514</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.6618595779928</v>
+        <v>166.3732738681757</v>
       </c>
       <c r="AD3" t="n">
-        <v>102339.7183322616</v>
+        <v>134425.5803792395</v>
       </c>
       <c r="AE3" t="n">
-        <v>140025.7175318678</v>
+        <v>183927.0095128514</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.452249517285599e-06</v>
+        <v>6.728657841461085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.54050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>126661.8595779928</v>
+        <v>166373.2738681757</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.7825957533219</v>
+        <v>132.9325909558655</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.6316819577351</v>
+        <v>181.8842355177475</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.209991609532</v>
+        <v>164.5254593561125</v>
       </c>
       <c r="AD2" t="n">
-        <v>102782.5957533219</v>
+        <v>132932.5909558655</v>
       </c>
       <c r="AE2" t="n">
-        <v>140631.6819577351</v>
+        <v>181884.2355177475</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.412004595595812e-06</v>
+        <v>6.973120276675237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.258101851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>127209.991609532</v>
+        <v>164525.4593561125</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.0581362228042</v>
+        <v>220.3437981389847</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.6269973504957</v>
+        <v>301.4841054959273</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.3755786560733</v>
+        <v>272.7108856030847</v>
       </c>
       <c r="AD2" t="n">
-        <v>178058.1362228042</v>
+        <v>220343.7981389847</v>
       </c>
       <c r="AE2" t="n">
-        <v>243626.9973504957</v>
+        <v>301484.1054959273</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105470344008774e-06</v>
+        <v>4.527422635142298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>220375.5786560733</v>
+        <v>272710.8856030847</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.583708367025</v>
+        <v>153.4804389767859</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.6197054485685</v>
+        <v>209.9987076870332</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.0040704023012</v>
+        <v>189.9567257604801</v>
       </c>
       <c r="AD3" t="n">
-        <v>119583.708367025</v>
+        <v>153480.4389767859</v>
       </c>
       <c r="AE3" t="n">
-        <v>163619.7054485685</v>
+        <v>209998.7076870332</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.999023966346054e-06</v>
+        <v>5.830122209552325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.789351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>148004.0704023012</v>
+        <v>189956.7257604801</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.8345322340093</v>
+        <v>146.560670643178</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.3851849107444</v>
+        <v>200.5307753743622</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.6508795438731</v>
+        <v>181.3923996194009</v>
       </c>
       <c r="AD4" t="n">
-        <v>112834.5322340093</v>
+        <v>146560.670643178</v>
       </c>
       <c r="AE4" t="n">
-        <v>154385.1849107444</v>
+        <v>200530.7753743622</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.210836448285971e-06</v>
+        <v>6.138920722792206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.40162037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>139650.8795438731</v>
+        <v>181392.3996194009</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.6798490750312</v>
+        <v>138.7713181256781</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.1228553027485</v>
+        <v>189.8730396179442</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.8451652528454</v>
+        <v>171.7518232053459</v>
       </c>
       <c r="AD2" t="n">
-        <v>101679.8490750312</v>
+        <v>138771.3181256781</v>
       </c>
       <c r="AE2" t="n">
-        <v>139122.8553027486</v>
+        <v>189873.0396179442</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.30020953049467e-06</v>
+        <v>6.889945777085966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.668981481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>125845.1652528454</v>
+        <v>171751.8232053459</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.9138783702279</v>
+        <v>174.9946016255202</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.2268762494227</v>
+        <v>239.435334160886</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.7399603407652</v>
+        <v>216.5839619182425</v>
       </c>
       <c r="AD2" t="n">
-        <v>133913.8783702279</v>
+        <v>174994.6016255202</v>
       </c>
       <c r="AE2" t="n">
-        <v>183226.8762494227</v>
+        <v>239435.334160886</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.680383463638382e-06</v>
+        <v>5.464792348811257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>165739.9603407652</v>
+        <v>216583.9619182425</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.6442368088508</v>
+        <v>139.4064958961498</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.9153496134867</v>
+        <v>190.7421178655686</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.9893934398945</v>
+        <v>172.5379578447764</v>
       </c>
       <c r="AD3" t="n">
-        <v>106644.2368088508</v>
+        <v>139406.4958961498</v>
       </c>
       <c r="AE3" t="n">
-        <v>145915.3496134867</v>
+        <v>190742.1178655686</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.364245496144886e-06</v>
+        <v>6.480220235553672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.424768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>131989.3934398945</v>
+        <v>172537.9578447764</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.3840414060027</v>
+        <v>198.0059798136434</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.9715446285841</v>
+        <v>270.9205169882174</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.5504007202422</v>
+        <v>245.064243086275</v>
       </c>
       <c r="AD2" t="n">
-        <v>156384.0414060027</v>
+        <v>198005.9798136434</v>
       </c>
       <c r="AE2" t="n">
-        <v>213971.5446285841</v>
+        <v>270920.5169882174</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.353314085509427e-06</v>
+        <v>4.930855477238449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.467592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>193550.4007202422</v>
+        <v>245064.243086275</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.0414746467154</v>
+        <v>144.3049069327096</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.9318444156923</v>
+        <v>197.4443399484296</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.4316824223829</v>
+        <v>178.600529258679</v>
       </c>
       <c r="AD3" t="n">
-        <v>111041.4746467154</v>
+        <v>144304.9069327096</v>
       </c>
       <c r="AE3" t="n">
-        <v>151931.8444156923</v>
+        <v>197444.3399484296</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.245542108326642e-06</v>
+        <v>6.242825463069809e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.476851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>137431.6824223829</v>
+        <v>178600.529258679</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.7221751412757</v>
+        <v>142.9856074272699</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.1267206289641</v>
+        <v>195.6392161617015</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.7988371163524</v>
+        <v>176.9676839526485</v>
       </c>
       <c r="AD4" t="n">
-        <v>109722.1751412757</v>
+        <v>142985.6074272699</v>
       </c>
       <c r="AE4" t="n">
-        <v>150126.7206289641</v>
+        <v>195639.2161617015</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.294025607968296e-06</v>
+        <v>6.314117660480364e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.390046296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>135798.8371163524</v>
+        <v>176967.6839526485</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.5427404218273</v>
+        <v>245.9493708172301</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.1819600649983</v>
+        <v>336.5187796724258</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.7779273852001</v>
+        <v>304.4018996476634</v>
       </c>
       <c r="AD2" t="n">
-        <v>194542.7404218273</v>
+        <v>245949.3708172301</v>
       </c>
       <c r="AE2" t="n">
-        <v>266181.9600649984</v>
+        <v>336518.7796724258</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.847441398340967e-06</v>
+        <v>4.119599929460715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75810185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>240777.9273852</v>
+        <v>304401.8996476633</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.1895395248185</v>
+        <v>171.4322690121141</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.7087803531023</v>
+        <v>234.5611935202031</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.7941178071829</v>
+        <v>212.1750024194054</v>
       </c>
       <c r="AD3" t="n">
-        <v>137189.5395248185</v>
+        <v>171432.2690121141</v>
       </c>
       <c r="AE3" t="n">
-        <v>187708.7803531023</v>
+        <v>234561.1935202031</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.763960936704118e-06</v>
+        <v>5.445595199386225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.136574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>169794.1178071829</v>
+        <v>212175.0024194054</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.6346448123585</v>
+        <v>149.7920334450826</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.2164224726883</v>
+        <v>204.9520685175914</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.116469170082</v>
+        <v>185.3917307503656</v>
       </c>
       <c r="AD4" t="n">
-        <v>115634.6448123585</v>
+        <v>149792.0334450825</v>
       </c>
       <c r="AE4" t="n">
-        <v>158216.4224726883</v>
+        <v>204952.0685175914</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.148027779586615e-06</v>
+        <v>6.001252548390419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.38425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>143116.469170082</v>
+        <v>185391.7307503656</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.818922314055</v>
+        <v>149.9763109467791</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.468559080259</v>
+        <v>205.2042051251621</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.3445422137022</v>
+        <v>185.6198037939859</v>
       </c>
       <c r="AD5" t="n">
-        <v>115818.922314055</v>
+        <v>149976.3109467791</v>
       </c>
       <c r="AE5" t="n">
-        <v>158468.559080259</v>
+        <v>205204.2051251621</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.14093405705784e-06</v>
+        <v>5.990989545665874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>143344.5422137022</v>
+        <v>185619.8037939859</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.710425341073</v>
+        <v>153.0084109278478</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.1613293197049</v>
+        <v>209.3528580860686</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.3985638548596</v>
+        <v>189.3725151389757</v>
       </c>
       <c r="AD2" t="n">
-        <v>120710.425341073</v>
+        <v>153008.4109278478</v>
       </c>
       <c r="AE2" t="n">
-        <v>165161.3293197049</v>
+        <v>209352.8580860686</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.063324769508956e-06</v>
+        <v>6.101832288198147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.153935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>149398.5638548596</v>
+        <v>189372.5151389757</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.0071385948008</v>
+        <v>136.3903755275961</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.3071554964631</v>
+        <v>186.6153289154759</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.7255603052662</v>
+        <v>168.8050238400945</v>
       </c>
       <c r="AD3" t="n">
-        <v>104007.1385948008</v>
+        <v>136390.3755275961</v>
       </c>
       <c r="AE3" t="n">
-        <v>142307.1554964631</v>
+        <v>186615.3289154759</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.417660846817331e-06</v>
+        <v>6.633933323689583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.500000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>128725.5603052662</v>
+        <v>168805.0238400945</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.70323763852724</v>
+        <v>131.1360056068486</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.418368333383</v>
+        <v>179.4260681834719</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.3987907240639</v>
+        <v>162.3018960621599</v>
       </c>
       <c r="AD2" t="n">
-        <v>99703.23763852724</v>
+        <v>131136.0056068485</v>
       </c>
       <c r="AE2" t="n">
-        <v>136418.368333383</v>
+        <v>179426.0681834719</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.462139736298745e-06</v>
+        <v>6.843792313604167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.737268518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>123398.7907240639</v>
+        <v>162301.8960621599</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.0318664166872</v>
+        <v>131.4646343850085</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.8680127257397</v>
+        <v>179.8757125758286</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.8055216866941</v>
+        <v>162.7086270247901</v>
       </c>
       <c r="AD3" t="n">
-        <v>100031.8664166872</v>
+        <v>131464.6343850085</v>
       </c>
       <c r="AE3" t="n">
-        <v>136868.0127257397</v>
+        <v>179875.7125758286</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.458500630946665e-06</v>
+        <v>6.838210847601575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.743055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>123805.5216866941</v>
+        <v>162708.6270247901</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.3083280368749</v>
+        <v>134.8961170512194</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.7192561786489</v>
+        <v>184.570818546067</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.0983306767313</v>
+        <v>166.955638670853</v>
       </c>
       <c r="AD2" t="n">
-        <v>104308.3280368749</v>
+        <v>134896.1170512195</v>
       </c>
       <c r="AE2" t="n">
-        <v>142719.2561786489</v>
+        <v>184570.8185460671</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.457769664684526e-06</v>
+        <v>6.965177169933397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.00925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>129098.3306767313</v>
+        <v>166955.638670853</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.1520176802524</v>
+        <v>144.4402062754832</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.9783619203347</v>
+        <v>197.6294624781981</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.8555147476336</v>
+        <v>178.7679839540275</v>
       </c>
       <c r="AD2" t="n">
-        <v>108152.0176802524</v>
+        <v>144440.2062754832</v>
       </c>
       <c r="AE2" t="n">
-        <v>147978.3619203347</v>
+        <v>197629.4624781981</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.086146218535432e-06</v>
+        <v>6.659094968686132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.380787037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>133855.5147476336</v>
+        <v>178767.9839540275</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.9751002342105</v>
+        <v>182.1639722996458</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.8343044579272</v>
+        <v>249.2447834075313</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.3806445237637</v>
+        <v>225.4572110964395</v>
       </c>
       <c r="AD2" t="n">
-        <v>148975.1002342105</v>
+        <v>182163.9722996459</v>
       </c>
       <c r="AE2" t="n">
-        <v>203834.3044579272</v>
+        <v>249244.7834075313</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.515634166912204e-06</v>
+        <v>5.193930434784377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.12037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>184380.6445237637</v>
+        <v>225457.2110964395</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.0615676037485</v>
+        <v>141.0797579600406</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.8546041352864</v>
+        <v>193.0315488404953</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.7435682318951</v>
+        <v>174.6088887406933</v>
       </c>
       <c r="AD3" t="n">
-        <v>108061.5676037485</v>
+        <v>141079.7579600406</v>
       </c>
       <c r="AE3" t="n">
-        <v>147854.6041352864</v>
+        <v>193031.5488404953</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.334178072949382e-06</v>
+        <v>6.403231489423933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>133743.5682318951</v>
+        <v>174608.8887406933</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.3694598573922</v>
+        <v>141.3876502136844</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.2758758999692</v>
+        <v>193.452820605178</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.1246344106153</v>
+        <v>174.9899549194135</v>
       </c>
       <c r="AD4" t="n">
-        <v>108369.4598573922</v>
+        <v>141387.6502136844</v>
       </c>
       <c r="AE4" t="n">
-        <v>148275.8758999692</v>
+        <v>193452.820605178</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.324650458965597e-06</v>
+        <v>6.389155575409044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.413194444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>134124.6344106153</v>
+        <v>174989.9549194135</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.5573896201362</v>
+        <v>229.1170524776483</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.256050809316</v>
+        <v>313.4880591307457</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.8947715742666</v>
+        <v>283.5691987506546</v>
       </c>
       <c r="AD2" t="n">
-        <v>186557.3896201362</v>
+        <v>229117.0524776483</v>
       </c>
       <c r="AE2" t="n">
-        <v>255256.050809316</v>
+        <v>313488.0591307457</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.967527567500694e-06</v>
+        <v>4.309351586548855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.41087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>230894.7715742666</v>
+        <v>283569.1987506546</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.6550685431347</v>
+        <v>166.1293010375241</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.1903200572533</v>
+        <v>227.305438786937</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.0430333711415</v>
+        <v>205.6117267343642</v>
       </c>
       <c r="AD3" t="n">
-        <v>123655.0685431347</v>
+        <v>166129.3010375241</v>
       </c>
       <c r="AE3" t="n">
-        <v>169190.3200572533</v>
+        <v>227305.438786937</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.891884060762729e-06</v>
+        <v>5.651673445459286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.939814814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>153043.0333711415</v>
+        <v>205611.7267343642</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.1149880475332</v>
+        <v>148.0603272097671</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.1371610445305</v>
+        <v>202.5826716489468</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.2356495343652</v>
+        <v>183.2484657933943</v>
       </c>
       <c r="AD4" t="n">
-        <v>114114.9880475332</v>
+        <v>148060.3272097671</v>
       </c>
       <c r="AE4" t="n">
-        <v>156137.1610445305</v>
+        <v>202582.6716489468</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.179114082720517e-06</v>
+        <v>6.06877998370477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.390046296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>141235.6495343652</v>
+        <v>183248.4657933943</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.3497721304399</v>
+        <v>148.2951112926739</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.4584029847061</v>
+        <v>202.9039135891224</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.5262325946364</v>
+        <v>183.5390488536655</v>
       </c>
       <c r="AD5" t="n">
-        <v>114349.7721304399</v>
+        <v>148295.1112926739</v>
       </c>
       <c r="AE5" t="n">
-        <v>156458.402984706</v>
+        <v>202903.9135891224</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.178526918579737e-06</v>
+        <v>6.06792732213244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.390046296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>141526.2325946364</v>
+        <v>183539.0488536655</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.9738764054916</v>
+        <v>158.5522857653477</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.2582829224543</v>
+        <v>216.9382322172286</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.1999485523652</v>
+        <v>196.2339518091996</v>
       </c>
       <c r="AD2" t="n">
-        <v>122973.8764054916</v>
+        <v>158552.2857653477</v>
       </c>
       <c r="AE2" t="n">
-        <v>168258.2829224543</v>
+        <v>216938.2322172286</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.6060995305888e-06</v>
+        <v>6.011153069536867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.00694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>152199.9485523652</v>
+        <v>196233.9518091996</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.238951435201</v>
+        <v>133.009115338464</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.519599700902</v>
+        <v>181.9889395540362</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.2994835189644</v>
+        <v>164.6201705861309</v>
       </c>
       <c r="AD2" t="n">
-        <v>101238.951435201</v>
+        <v>133009.115338464</v>
       </c>
       <c r="AE2" t="n">
-        <v>138519.599700902</v>
+        <v>181988.9395540362</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.453713128071449e-06</v>
+        <v>6.778135500861439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.638888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>125299.4835189644</v>
+        <v>164620.1705861308</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.9203901333646</v>
+        <v>132.6905540366276</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.083730073797</v>
+        <v>181.553069926931</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.9052126773232</v>
+        <v>164.2258997444897</v>
       </c>
       <c r="AD3" t="n">
-        <v>100920.3901333646</v>
+        <v>132690.5540366276</v>
       </c>
       <c r="AE3" t="n">
-        <v>138083.730073797</v>
+        <v>181553.0699269311</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.474171320082549e-06</v>
+        <v>6.809270958751589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>124905.2126773232</v>
+        <v>164225.8997444897</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.405966230555</v>
+        <v>159.9855994966587</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.3224637511063</v>
+        <v>218.8993552977464</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.6853724738638</v>
+        <v>198.007908055367</v>
       </c>
       <c r="AD2" t="n">
-        <v>127405.966230555</v>
+        <v>159985.5994966587</v>
       </c>
       <c r="AE2" t="n">
-        <v>174322.4637511063</v>
+        <v>218899.3552977464</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.857130737002621e-06</v>
+        <v>5.758351725509674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>157685.3724738638</v>
+        <v>198007.9080553669</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.3123777883722</v>
+        <v>137.8066701999043</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.0930413441958</v>
+        <v>188.5531657686382</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.3410037141984</v>
+        <v>170.5579162637627</v>
       </c>
       <c r="AD3" t="n">
-        <v>105312.3777883722</v>
+        <v>137806.6701999043</v>
       </c>
       <c r="AE3" t="n">
-        <v>144093.0413441958</v>
+        <v>188553.1657686382</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.388549588745436e-06</v>
+        <v>6.551712612281069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.465277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>130341.0037141984</v>
+        <v>170557.9162637627</v>
       </c>
     </row>
   </sheetData>
